--- a/public/upload/student_list_each_semester/2/D14_TH06.xlsx
+++ b/public/upload/student_list_each_semester/2/D14_TH06.xlsx
@@ -791,6 +791,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,51 +846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,46 +1141,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1189,76 +1189,76 @@
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
@@ -1280,10 +1280,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1298,31 +1298,31 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
@@ -1335,13 +1335,13 @@
       <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -1350,10 +1350,10 @@
       <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
@@ -2298,18 +2298,18 @@
     </row>
     <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2321,18 +2321,18 @@
     </row>
     <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
       <c r="J46" s="4"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
@@ -2584,17 +2584,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:M5"/>
@@ -2606,11 +2600,17 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/upload/student_list_each_semester/2/D14_TH06.xlsx
+++ b/public/upload/student_list_each_semester/2/D14_TH06.xlsx
@@ -158,9 +158,6 @@
     <t>(14)</t>
   </si>
   <si>
-    <t>DH51400134</t>
-  </si>
-  <si>
     <t>Phan Đình</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>Năm học: 2017 - 2018</t>
+  </si>
+  <si>
+    <t>DH51499999</t>
   </si>
 </sst>
 </file>
@@ -791,62 +791,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,7 +1131,7 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,46 +1141,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1189,76 +1189,76 @@
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24" t="s">
+      <c r="C5" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
@@ -1280,10 +1280,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1298,31 +1298,31 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="27" t="s">
+      <c r="N8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="25" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
@@ -1335,13 +1335,13 @@
       <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -1350,10 +1350,10 @@
       <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1393,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>39</v>
-      </c>
       <c r="E11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1420,16 +1420,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1447,16 +1447,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1474,16 +1474,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1501,16 +1501,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1528,16 +1528,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="E16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1555,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1582,16 +1582,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1609,16 +1609,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1636,16 +1636,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="13" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1663,16 +1663,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1690,16 +1690,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1717,16 +1717,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>76</v>
-      </c>
       <c r="E23" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1744,16 +1744,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1771,16 +1771,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1798,16 +1798,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="E26" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1825,16 +1825,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1852,16 +1852,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="D28" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1879,16 +1879,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="E29" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1906,16 +1906,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="E30" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1933,16 +1933,16 @@
         <v>21</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="E31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1960,16 +1960,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>102</v>
-      </c>
       <c r="E32" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1987,16 +1987,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="D33" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="E33" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2014,16 +2014,16 @@
         <v>24</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="E34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2041,16 +2041,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2068,16 +2068,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>112</v>
-      </c>
       <c r="D36" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2095,16 +2095,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="E37" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2122,16 +2122,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="E38" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2149,16 +2149,16 @@
         <v>29</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="D39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>121</v>
-      </c>
       <c r="E39" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2176,16 +2176,16 @@
         <v>30</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>124</v>
-      </c>
       <c r="E40" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2203,16 +2203,16 @@
         <v>31</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D41" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>127</v>
-      </c>
       <c r="E41" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2230,16 +2230,16 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="D42" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="E42" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2257,16 +2257,16 @@
         <v>33</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="E43" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -2298,46 +2298,46 @@
     </row>
     <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="38"/>
+      <c r="B45" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="23"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
+      <c r="G45" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="38"/>
+      <c r="B46" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="23"/>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
+      <c r="G46" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="4"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="17"/>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="17"/>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="17"/>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="17"/>
@@ -2472,23 +2472,23 @@
     <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -2497,23 +2497,23 @@
     <row r="55" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -2522,23 +2522,23 @@
     <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="17"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="17"/>
@@ -2584,11 +2584,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:M5"/>
@@ -2600,17 +2606,11 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/upload/student_list_each_semester/2/D14_TH06.xlsx
+++ b/public/upload/student_list_each_semester/2/D14_TH06.xlsx
@@ -158,6 +158,9 @@
     <t>(14)</t>
   </si>
   <si>
+    <t>DH51400134</t>
+  </si>
+  <si>
     <t>Phan Đình</t>
   </si>
   <si>
@@ -516,9 +519,6 @@
   </si>
   <si>
     <t>Năm học: 2017 - 2018</t>
-  </si>
-  <si>
-    <t>DH51499999</t>
   </si>
 </sst>
 </file>
@@ -836,17 +836,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,14 +1141,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
@@ -1170,17 +1170,17 @@
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1189,42 +1189,42 @@
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1250,7 +1250,7 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -1393,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>157</v>
+        <v>37</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1420,16 +1420,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1447,16 +1447,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1474,16 +1474,16 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1501,16 +1501,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1528,16 +1528,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1555,16 +1555,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1582,16 +1582,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1609,16 +1609,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1636,16 +1636,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1663,16 +1663,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1690,16 +1690,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1717,16 +1717,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1744,16 +1744,16 @@
         <v>14</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1771,16 +1771,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1798,16 +1798,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1825,16 +1825,16 @@
         <v>17</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1852,16 +1852,16 @@
         <v>18</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1879,16 +1879,16 @@
         <v>19</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1906,16 +1906,16 @@
         <v>20</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1933,16 +1933,16 @@
         <v>21</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1960,16 +1960,16 @@
         <v>22</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1987,16 +1987,16 @@
         <v>23</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2014,16 +2014,16 @@
         <v>24</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2041,16 +2041,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>107</v>
-      </c>
       <c r="E35" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2068,16 +2068,16 @@
         <v>26</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2095,16 +2095,16 @@
         <v>27</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2122,16 +2122,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2149,16 +2149,16 @@
         <v>29</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2176,16 +2176,16 @@
         <v>30</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2203,16 +2203,16 @@
         <v>31</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2230,16 +2230,16 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2257,16 +2257,16 @@
         <v>33</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
@@ -2299,14 +2299,14 @@
     <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
       <c r="G45" s="24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
@@ -2314,7 +2314,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -2322,14 +2322,14 @@
     <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="4"/>
       <c r="E46" s="7"/>
       <c r="F46" s="4"/>
       <c r="G46" s="24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24"/>
@@ -2337,7 +2337,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="17"/>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="17"/>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="17"/>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="17"/>
@@ -2472,23 +2472,23 @@
     <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
       <c r="L54" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -2497,23 +2497,23 @@
     <row r="55" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
@@ -2522,23 +2522,23 @@
     <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
       <c r="L56" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="17"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="17"/>

--- a/public/upload/student_list_each_semester/2/D14_TH06.xlsx
+++ b/public/upload/student_list_each_semester/2/D14_TH06.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="155">
   <si>
     <t>BỘ GIÁO DỤC VÀ ĐÀO TẠO</t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>(14)</t>
-  </si>
-  <si>
-    <t>DH51400134</t>
-  </si>
-  <si>
-    <t>Phan Đình</t>
-  </si>
-  <si>
-    <t>Chiến</t>
   </si>
   <si>
     <t>D14_TH06</t>
@@ -791,6 +782,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,51 +837,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1128,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,46 +1132,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="27" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
     </row>
     <row r="3" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1189,76 +1180,76 @@
       <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
     </row>
     <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28" t="s">
+      <c r="C5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
@@ -1280,10 +1271,10 @@
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -1298,31 +1289,31 @@
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="31"/>
@@ -1335,13 +1326,13 @@
       <c r="H9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
@@ -1350,10 +1341,10 @@
       <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1390,19 +1381,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1417,7 +1408,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>41</v>
@@ -1429,7 +1420,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -1444,7 +1435,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>44</v>
@@ -1456,7 +1447,7 @@
         <v>46</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -1471,7 +1462,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>47</v>
@@ -1483,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -1498,7 +1489,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>50</v>
@@ -1510,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -1525,7 +1516,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>53</v>
@@ -1537,7 +1528,7 @@
         <v>55</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1552,7 +1543,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>56</v>
@@ -1564,7 +1555,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -1579,7 +1570,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>59</v>
@@ -1591,7 +1582,7 @@
         <v>61</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -1606,7 +1597,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>62</v>
@@ -1618,7 +1609,7 @@
         <v>64</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1633,7 +1624,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>65</v>
@@ -1645,7 +1636,7 @@
         <v>67</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1660,7 +1651,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>68</v>
@@ -1672,7 +1663,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -1687,7 +1678,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>71</v>
@@ -1699,7 +1690,7 @@
         <v>73</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1714,7 +1705,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>74</v>
@@ -1726,7 +1717,7 @@
         <v>76</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -1741,7 +1732,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>77</v>
@@ -1753,7 +1744,7 @@
         <v>79</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -1768,7 +1759,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>80</v>
@@ -1780,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -1795,7 +1786,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>83</v>
@@ -1807,7 +1798,7 @@
         <v>85</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
@@ -1822,7 +1813,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>86</v>
@@ -1831,10 +1822,10 @@
         <v>87</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -1849,19 +1840,19 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
@@ -1876,7 +1867,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>91</v>
@@ -1888,7 +1879,7 @@
         <v>93</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
@@ -1903,7 +1894,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>94</v>
@@ -1915,7 +1906,7 @@
         <v>96</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
@@ -1930,7 +1921,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>97</v>
@@ -1942,7 +1933,7 @@
         <v>99</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
@@ -1957,7 +1948,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>100</v>
@@ -1969,7 +1960,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
@@ -1984,7 +1975,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>103</v>
@@ -1996,7 +1987,7 @@
         <v>105</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
@@ -2011,7 +2002,7 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>106</v>
@@ -2020,10 +2011,10 @@
         <v>107</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -2038,19 +2029,19 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D35" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
@@ -2065,19 +2056,19 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>108</v>
-      </c>
       <c r="E36" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
@@ -2092,7 +2083,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>113</v>
@@ -2104,7 +2095,7 @@
         <v>115</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
@@ -2119,7 +2110,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>116</v>
@@ -2131,7 +2122,7 @@
         <v>118</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
@@ -2146,7 +2137,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>119</v>
@@ -2158,7 +2149,7 @@
         <v>121</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -2173,7 +2164,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>122</v>
@@ -2185,7 +2176,7 @@
         <v>124</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
@@ -2200,7 +2191,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>125</v>
@@ -2212,7 +2203,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -2227,7 +2218,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>128</v>
@@ -2239,7 +2230,7 @@
         <v>130</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2253,92 +2244,82 @@
       <c r="O42" s="14"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
-        <v>33</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="38"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E43" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="4"/>
       <c r="E45" s="7"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
+      <c r="G45" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
-      <c r="B46" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
       <c r="E46" s="7"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="4"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-      <c r="M46" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
     </row>
@@ -2350,8 +2331,8 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2377,7 +2358,9 @@
       <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="B49" s="7"/>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
@@ -2394,8 +2377,8 @@
       <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>138</v>
+      <c r="A50" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="17"/>
@@ -2413,8 +2396,8 @@
       <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>139</v>
+      <c r="A51" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="17"/>
@@ -2433,7 +2416,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="17"/>
@@ -2451,20 +2434,26 @@
       <c r="O52" s="7"/>
     </row>
     <row r="53" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="7"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
+      <c r="D53" s="17" t="s">
+        <v>140</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="20" t="s">
+        <v>141</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="L53" s="19" t="s">
+        <v>142</v>
+      </c>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -2472,23 +2461,23 @@
     <row r="54" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="20" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="7"/>
-      <c r="L54" s="19" t="s">
-        <v>145</v>
+      <c r="L54" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
@@ -2496,57 +2485,51 @@
     </row>
     <row r="55" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
-      <c r="B55" s="19" t="s">
-        <v>146</v>
+      <c r="B55" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
       <c r="L55" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="20" t="s">
-        <v>150</v>
-      </c>
+      <c r="A56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="7"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="17" t="s">
-        <v>151</v>
-      </c>
+      <c r="D56" s="17"/>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
-      <c r="G56" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="L56" s="7"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
-        <v>154</v>
+      <c r="A57" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="17"/>
@@ -2563,38 +2546,13 @@
       <c r="N57" s="7"/>
       <c r="O57" s="7"/>
     </row>
-    <row r="58" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:O2"/>
-    <mergeCell ref="G3:O3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G45:I45"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:M5"/>
@@ -2606,11 +2564,17 @@
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="G3:O3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
